--- a/experiments/linguistic/train.1.000/2-gram-weights.xlsx
+++ b/experiments/linguistic/train.1.000/2-gram-weights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,833 +449,820 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'seen')</t>
+          <t>('waste', 'time')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381</v>
+        <v>1129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04151635401635401</v>
+        <v>0.05203964047015441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('special', 'effects')</t>
+          <t>('one', 'worst')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1145</v>
+        <v>788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03442159692159692</v>
+        <v>0.03632173311823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('waste', 'time')</t>
+          <t>('bad', 'movie')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1129</v>
+        <v>706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03394059644059644</v>
+        <v>0.03254206038257663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('looks', 'like')</t>
+          <t>('really', 'bad')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001</v>
+        <v>588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03009259259259259</v>
+        <v>0.02710301912883153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('worst', 'movie')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969</v>
+        <v>570</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02913059163059163</v>
+        <v>0.02627333486978567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('much', 'better')</t>
+          <t>('bad', 'acting')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>805</v>
+        <v>556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0242003367003367</v>
+        <v>0.02562802489052777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('one', 'worst')</t>
+          <t>('movie', 'bad')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>788</v>
+        <v>540</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02368927368927369</v>
+        <v>0.02489052777137589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('look', 'like')</t>
+          <t>('make', 'movie')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02245670995670996</v>
+        <v>0.0218022585849274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('year', 'old')</t>
+          <t>('whole', 'movie')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725</v>
+        <v>464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02179533429533429</v>
+        <v>0.02138741645540447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('even', 'though')</t>
+          <t>('movie', 'even')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720</v>
+        <v>416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02164502164502164</v>
+        <v>0.01917492509794884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'movie')</t>
+          <t>('whole', 'thing')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>706</v>
+        <v>391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02122414622414623</v>
+        <v>0.01802258584927403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'ever')</t>
+          <t>('make', 'sense')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>684</v>
+        <v>381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02056277056277056</v>
+        <v>0.0175616501498041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('sci', 'fi')</t>
+          <t>('even', 'worse')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>629</v>
+        <v>378</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01890933140933141</v>
+        <v>0.01742336943996313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('watch', 'movie')</t>
+          <t>('looked', 'like')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593</v>
+        <v>378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01782708032708033</v>
+        <v>0.01742336943996313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('see', 'movie')</t>
+          <t>('seems', 'like')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>592</v>
+        <v>367</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0177970177970178</v>
+        <v>0.01691634017054621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('really', 'bad')</t>
+          <t>('good', 'thing')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>588</v>
+        <v>365</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01767676767676768</v>
+        <v>0.01682415303065223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movie')</t>
+          <t>('b', 'movie')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>570</v>
+        <v>355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01713564213564214</v>
+        <v>0.0163632173311823</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('good', 'movie')</t>
+          <t>('movie', 'could')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569</v>
+        <v>346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01710557960557961</v>
+        <v>0.01594837520165937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('main', 'character')</t>
+          <t>('bad', 'film')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>563</v>
+        <v>342</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01692520442520443</v>
+        <v>0.0157640009218714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'acting')</t>
+          <t>('bad', 'guys')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>556</v>
+        <v>340</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01671476671476671</v>
+        <v>0.01567181378197741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'much')</t>
+          <t>('character', 'development')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01671476671476671</v>
+        <v>0.01553353307213644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('watching', 'movie')</t>
+          <t>('film', 'ever')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>542</v>
+        <v>336</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01629389129389129</v>
+        <v>0.01548743950218944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'bad')</t>
+          <t>('worst', 'movies')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>540</v>
+        <v>335</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01623376623376623</v>
+        <v>0.01544134593224245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'movie')</t>
+          <t>('first', 'minutes')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538</v>
+        <v>335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01617364117364117</v>
+        <v>0.01544134593224245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('want', 'see')</t>
+          <t>('first', 'movie')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499</v>
+        <v>324</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0150012025012025</v>
+        <v>0.01493431666282554</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('high', 'school')</t>
+          <t>('something', 'like')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>486</v>
+        <v>320</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01461038961038961</v>
+        <v>0.01474994238303757</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'really')</t>
+          <t>('acting', 'bad')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>476</v>
+        <v>316</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01430976430976431</v>
+        <v>0.0145655681032496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('make', 'movie')</t>
+          <t>('read', 'book')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>473</v>
+        <v>314</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01421957671957672</v>
+        <v>0.01447338096335561</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'movie')</t>
+          <t>('horror', 'movies')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>464</v>
+        <v>311</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01394901394901395</v>
+        <v>0.01433510025351463</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'made')</t>
+          <t>('bad', 'guy')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>462</v>
+        <v>310</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.01428900668356764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'would')</t>
+          <t>('one', 'scene')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>454</v>
+        <v>307</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01364838864838865</v>
+        <v>0.01415072597372666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'like')</t>
+          <t>('felt', 'like')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>451</v>
+        <v>307</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01355820105820106</v>
+        <v>0.01415072597372666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('one', 'thing')</t>
+          <t>('worst', 'film')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442</v>
+        <v>305</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01328763828763829</v>
+        <v>0.01405853883383268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'one')</t>
+          <t>('entire', 'movie')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>439</v>
+        <v>295</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0131974506974507</v>
+        <v>0.01359760313436276</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'made')</t>
+          <t>('part', 'movie')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>438</v>
+        <v>285</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01316738816738817</v>
+        <v>0.01313666743489283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'film')</t>
+          <t>('bad', 'movies')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01286676286676287</v>
+        <v>0.01299838672505186</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'good')</t>
+          <t>('one', 'point')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01274651274651275</v>
+        <v>0.01262963816547592</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'even')</t>
+          <t>('made', 'movie')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01250601250601251</v>
+        <v>0.01244526388568795</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('years', 'ago')</t>
+          <t>('first', 'place')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>413</v>
+        <v>268</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01241582491582492</v>
+        <v>0.01235307674579396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'thing')</t>
+          <t>('half', 'hour')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01175444925444926</v>
+        <v>0.01235307674579396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'ever')</t>
+          <t>('anything', 'else')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01166426166426166</v>
+        <v>0.01221479603595299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('real', 'life')</t>
+          <t>('production', 'values')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01148388648388648</v>
+        <v>0.01207651532611201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('make', 'sense')</t>
+          <t>('two', 'hours')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01145382395382395</v>
+        <v>0.01203042175616502</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('even', 'worse')</t>
+          <t>('movie', 'movie')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.01198432818621802</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('looked', 'like')</t>
+          <t>('really', 'really')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.01198432818621802</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'like')</t>
+          <t>('thing', 'movie')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01118326118326118</v>
+        <v>0.01193823461627103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('seems', 'like')</t>
+          <t>('bad', 'bad')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>367</v>
+        <v>255</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01103294853294853</v>
+        <v>0.01175386033648306</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('good', 'thing')</t>
+          <t>('mst', 'k')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01097282347282347</v>
+        <v>0.01175386033648306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('first', 'time')</t>
+          <t>('film', 'even')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01088263588263588</v>
+        <v>0.01170776676653607</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('b', 'movie')</t>
+          <t>('time', 'money')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>355</v>
+        <v>252</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01067219817219817</v>
+        <v>0.01161557962664208</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('new', 'york')</t>
+          <t>('like', 'watching')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01064213564213564</v>
+        <v>0.01161557962664208</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('film', 'making')</t>
+          <t>('make', 'film')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01052188552188552</v>
+        <v>0.01143120534685411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'could')</t>
+          <t>('yet', 'another')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0104016354016354</v>
+        <v>0.01138511177690712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('like', 'movie')</t>
+          <t>('writer', 'director')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01034151034151034</v>
+        <v>0.01129292463701314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('camera', 'work')</t>
+          <t>('tv', 'movie')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01031144781144781</v>
+        <v>0.01120073749711915</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'film')</t>
+          <t>('watching', 'film')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01028138528138528</v>
+        <v>0.01120073749711915</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guys')</t>
+          <t>('first', 'half')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01022126022126022</v>
+        <v>0.01110855035722517</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('character', 'development')</t>
+          <t>('would', 'better')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01013107263107263</v>
+        <v>0.01097026964738419</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('film', 'ever')</t>
+          <t>('would', 'make')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01097026964738419</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movies')</t>
+          <t>('plot', 'holes')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01007094757094757</v>
+        <v>0.0109241760774372</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('first', 'minutes')</t>
+          <t>('gon', 'na')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01007094757094757</v>
+        <v>0.0109241760774372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('never', 'seen')</t>
+          <t>('everyone', 'else')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.01087808250749021</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('worth', 'watching')</t>
+          <t>('whole', 'film')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.009860509860509861</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>('see', 'film')</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>324</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.00974025974025974</v>
+        <v>0.01083198893754321</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,826 +1306,813 @@
         <v>1316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04710261641433122</v>
+        <v>0.06912853916058202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('even', 'though')</t>
+          <t>('must', 'see')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>867</v>
+        <v>618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0310318909051863</v>
+        <v>0.03246309817723381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'seen')</t>
+          <t>('well', 'done')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772</v>
+        <v>580</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02763162604244962</v>
+        <v>0.03046698534432946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('first', 'time')</t>
+          <t>('great', 'movie')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761</v>
+        <v>552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02723791116360643</v>
+        <v>0.02899616536218942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('new', 'york')</t>
+          <t>('great', 'film')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670</v>
+        <v>455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02398081534772182</v>
+        <v>0.0239008247097757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('special', 'effects')</t>
+          <t>('love', 'story')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>661</v>
+        <v>436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02365868499230466</v>
+        <v>0.02290276829332353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('see', 'movie')</t>
+          <t>('highly', 'recommend')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>621</v>
+        <v>403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02222699452378396</v>
+        <v>0.02116930188580133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('must', 'see')</t>
+          <t>('black', 'white')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>618</v>
+        <v>376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0221196177386449</v>
+        <v>0.01975101118873772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('real', 'life')</t>
+          <t>('well', 'worth')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608</v>
+        <v>367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02176169512151473</v>
+        <v>0.01927824762304985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('years', 'ago')</t>
+          <t>('good', 'job')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>587</v>
+        <v>358</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02101005762554136</v>
+        <v>0.01880548405736198</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('well', 'done')</t>
+          <t>('movie', 'great')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02075951179355023</v>
+        <v>0.01838524977675054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('good', 'movie')</t>
+          <t>('supporting', 'cast')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559</v>
+        <v>334</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02000787429757686</v>
+        <v>0.01754478121552766</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('great', 'movie')</t>
+          <t>('film', 'also')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>552</v>
+        <v>329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01975732846558574</v>
+        <v>0.01728213479014551</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('year', 'old')</t>
+          <t>('first', 'saw')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01922044453989048</v>
+        <v>0.01696695907968692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('sci', 'fi')</t>
+          <t>('great', 'job')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515</v>
+        <v>319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01843301478220409</v>
+        <v>0.01675684193938121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('low', 'budget')</t>
+          <t>('world', 'war')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485</v>
+        <v>316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01735924693081356</v>
+        <v>0.01659925408415192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('great', 'film')</t>
+          <t>('takes', 'place')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>455</v>
+        <v>303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01628547907942303</v>
+        <v>0.01591637337815832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('saw', 'movie')</t>
+          <t>('well', 'written')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01628547907942303</v>
+        <v>0.01575878552292903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'good')</t>
+          <t>('love', 'movie')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>453</v>
+        <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01621389455599699</v>
+        <v>0.01575878552292903</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('years', 'later')</t>
+          <t>('one', 'favorite')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>449</v>
+        <v>297</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01607072550914492</v>
+        <v>0.01560119766769974</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('high', 'school')</t>
+          <t>('one', 'day')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>448</v>
+        <v>297</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01603493324743191</v>
+        <v>0.01560119766769974</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('really', 'good')</t>
+          <t>('highly', 'recommended')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>440</v>
+        <v>295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01574859515372776</v>
+        <v>0.01549613909754688</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('love', 'story')</t>
+          <t>('young', 'man')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>436</v>
+        <v>294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01560542610687569</v>
+        <v>0.01544360981247045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('watch', 'movie')</t>
+          <t>('saw', 'film')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432</v>
+        <v>291</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01546225706002362</v>
+        <v>0.01528602195724116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('long', 'time')</t>
+          <t>('years', 'old')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>430</v>
+        <v>289</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01539067253659759</v>
+        <v>0.0151809633870883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('see', 'film')</t>
+          <t>('go', 'see')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01517591896631948</v>
+        <v>0.01507590481693544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('ever', 'made')</t>
+          <t>('tv', 'series')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>407</v>
+        <v>276</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01456745051719818</v>
+        <v>0.01449808268109471</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('highly', 'recommend')</t>
+          <t>('th', 'century')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01442428147034611</v>
+        <v>0.01439302411094185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('much', 'better')</t>
+          <t>('film', 'festival')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01363685171265972</v>
+        <v>0.01439302411094185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('black', 'white')</t>
+          <t>('recommend', 'movie')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01345789040409463</v>
+        <v>0.01423543625571256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('many', 'people')</t>
+          <t>('worth', 'seeing')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0133863058806686</v>
+        <v>0.0141303776855597</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'one')</t>
+          <t>('film', 'great')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01331472135724256</v>
+        <v>0.01397278983033041</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('good', 'film')</t>
+          <t>('much', 'like')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01324313683381653</v>
+        <v>0.0136050848347954</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('film', 'one')</t>
+          <t>('film', 'like')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01320734457210351</v>
+        <v>0.01355255554971897</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('well', 'worth')</t>
+          <t>('true', 'story')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01313576004867748</v>
+        <v>0.01313232126910753</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('main', 'character')</t>
+          <t>('well', 'made')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01284942195497333</v>
+        <v>0.01286967484372538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('worth', 'watching')</t>
+          <t>('movie', 'also')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01284942195497333</v>
+        <v>0.01276461627357252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('good', 'job')</t>
+          <t>('many', 'years')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01281362969326032</v>
+        <v>0.01276461627357252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'great')</t>
+          <t>('little', 'bit')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01252729159955618</v>
+        <v>0.01271208698849609</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('one', 'thing')</t>
+          <t>('one', 'time')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01241991481441712</v>
+        <v>0.01265955770341966</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'really')</t>
+          <t>('film', 'well')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342</v>
+        <v>238</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01224095350585203</v>
+        <v>0.01250196984819037</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('never', 'seen')</t>
+          <t>('top', 'notch')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01213357672071298</v>
+        <v>0.01244944056311394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('looks', 'like')</t>
+          <t>('movie', 'well')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338</v>
+        <v>234</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01209778445899996</v>
+        <v>0.01229185270788465</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('pretty', 'much')</t>
+          <t>('would', 'recommend')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>336</v>
+        <v>234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01202619993557393</v>
+        <v>0.01229185270788465</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('every', 'time')</t>
+          <t>('well', 'known')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>335</v>
+        <v>228</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01199040767386091</v>
+        <v>0.01197667699742607</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('supporting', 'cast')</t>
+          <t>('seen', 'film')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01195461541214789</v>
+        <v>0.01192414771234964</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('film', 'also')</t>
+          <t>('film', 'noir')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01177565410358281</v>
+        <v>0.01171403057204391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('would', 'like')</t>
+          <t>('kung', 'fu')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>326</v>
+        <v>222</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01166827731844375</v>
+        <v>0.01166150128696748</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('first', 'saw')</t>
+          <t>('film', 'good')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0115609005333047</v>
+        <v>0.01160897200189105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('film', 'making')</t>
+          <t>('like', 'film')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01152510827159168</v>
+        <v>0.01145138414666176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('great', 'job')</t>
+          <t>('point', 'view')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01141773148645263</v>
+        <v>0.01145138414666176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('world', 'war')</t>
+          <t>('well', 'acted')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01131035470131358</v>
+        <v>0.01129379629143247</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('seen', 'movie')</t>
+          <t>('science', 'fiction')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01123877017788754</v>
+        <v>0.01124126700635604</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('many', 'times')</t>
+          <t>('big', 'screen')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01120297791617452</v>
+        <v>0.01124126700635604</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'good')</t>
+          <t>('best', 'film')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01109560113103547</v>
+        <v>0.01124126700635604</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('main', 'characters')</t>
+          <t>('quite', 'good')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01105980886932245</v>
+        <v>0.01118873772127961</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('movies', 'like')</t>
+          <t>('rest', 'cast')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01098822434589642</v>
+        <v>0.01118873772127961</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('takes', 'place')</t>
+          <t>('fun', 'watch')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01084505529904435</v>
+        <v>0.01118873772127961</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'like')</t>
+          <t>('watched', 'movie')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01080926303733133</v>
+        <v>0.01108367915112675</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'film')</t>
+          <t>('one', 'greatest')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01077347077561831</v>
+        <v>0.01108367915112675</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('film', 'made')</t>
+          <t>('films', 'ever')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01073767851390529</v>
+        <v>0.01092609129589746</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('well', 'written')</t>
+          <t>('young', 'woman')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01073767851390529</v>
+        <v>0.01092609129589746</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('love', 'movie')</t>
+          <t>('throughout', 'film')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01073767851390529</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>('films', 'like')</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>298</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.01066609399047926</v>
+        <v>0.01087356201082103</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/linguistic/train.1.000/2-gram-weights.xlsx
+++ b/experiments/linguistic/train.1.000/2-gram-weights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1129</v>
+        <v>1171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05203964047015441</v>
+        <v>0.05328297765846112</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>788</v>
+        <v>758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03632173311823</v>
+        <v>0.03449060381307731</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03254206038257663</v>
+        <v>0.0331255403376257</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02710301912883153</v>
+        <v>0.02639122719206443</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02627333486978567</v>
+        <v>0.02548118487509669</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02562802489052777</v>
+        <v>0.02539018064339992</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02489052777137589</v>
+        <v>0.02366110024116121</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0218022585849274</v>
+        <v>0.02134049233289348</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02138741645540447</v>
+        <v>0.02006643308913865</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01917492509794884</v>
+        <v>0.01979342039404832</v>
       </c>
     </row>
     <row r="12">
@@ -583,179 +583,179 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01802258584927403</v>
+        <v>0.01788233152841607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('make', 'sense')</t>
+          <t>('seems', 'like')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0175616501498041</v>
+        <v>0.01783682941256768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('even', 'worse')</t>
+          <t>('looked', 'like')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01742336943996313</v>
+        <v>0.01756381671747736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('looked', 'like')</t>
+          <t>('good', 'thing')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01742336943996313</v>
+        <v>0.01710879555899349</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('seems', 'like')</t>
+          <t>('b', 'movie')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01691634017054621</v>
+        <v>0.01710879555899349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('good', 'thing')</t>
+          <t>('even', 'worse')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01682415303065223</v>
+        <v>0.01697228921144833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('b', 'movie')</t>
+          <t>('character', 'development')</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0163632173311823</v>
+        <v>0.01615325112617737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'could')</t>
+          <t>('make', 'sense')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01594837520165937</v>
+        <v>0.01610774901032898</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'film')</t>
+          <t>('movie', 'could')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0157640009218714</v>
+        <v>0.01574373208354189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guys')</t>
+          <t>('bad', 'film')</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>340</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01567181378197741</v>
+        <v>0.01547071938845156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('character', 'development')</t>
+          <t>('worst', 'movies')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01553353307213644</v>
+        <v>0.01515220457751285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('film', 'ever')</t>
+          <t>('first', 'minutes')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01548743950218944</v>
+        <v>0.01506120034581608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'movies')</t>
+          <t>('bad', 'guys')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01544134593224245</v>
+        <v>0.01501569822996769</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('first', 'minutes')</t>
+          <t>('film', 'ever')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01544134593224245</v>
+        <v>0.01497019611411931</v>
       </c>
     </row>
     <row r="26">
@@ -765,140 +765,140 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01493431666282554</v>
+        <v>0.01492469399827092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('something', 'like')</t>
+          <t>('read', 'book')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01474994238303757</v>
+        <v>0.01487919188242253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('acting', 'bad')</t>
+          <t>('horror', 'movies')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0145655681032496</v>
+        <v>0.01446967283978705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('read', 'book')</t>
+          <t>('bad', 'guy')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01447338096335561</v>
+        <v>0.01437866860809028</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('horror', 'movies')</t>
+          <t>('acting', 'bad')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01433510025351463</v>
+        <v>0.01437866860809028</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'guy')</t>
+          <t>('something', 'like')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01428900668356764</v>
+        <v>0.01392364744960641</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('one', 'scene')</t>
+          <t>('end', 'movie')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01415072597372666</v>
+        <v>0.01387814533375802</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('felt', 'like')</t>
+          <t>('worst', 'film')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01415072597372666</v>
+        <v>0.01378714110206125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('worst', 'film')</t>
+          <t>('felt', 'like')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01405853883383268</v>
+        <v>0.01337762205942576</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('entire', 'movie')</t>
+          <t>('part', 'movie')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01359760313436276</v>
+        <v>0.01328661782772899</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('part', 'movie')</t>
+          <t>('one', 'scene')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01313666743489283</v>
+        <v>0.01319561359603222</v>
       </c>
     </row>
     <row r="37">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01299838672505186</v>
+        <v>0.01292260090094189</v>
       </c>
     </row>
     <row r="38">
@@ -921,36 +921,36 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01262963816547592</v>
+        <v>0.01287709878509351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('made', 'movie')</t>
+          <t>('production', 'values')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01244526388568795</v>
+        <v>0.01269509032169996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('first', 'place')</t>
+          <t>('film', 'even')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01235307674579396</v>
+        <v>0.01260408609000319</v>
       </c>
     </row>
     <row r="41">
@@ -960,153 +960,153 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01235307674579396</v>
+        <v>0.01242207762660964</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('anything', 'else')</t>
+          <t>('entire', 'movie')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01221479603595299</v>
+        <v>0.01242207762660964</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('production', 'values')</t>
+          <t>('first', 'place')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01207651532611201</v>
+        <v>0.0121945670473677</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('two', 'hours')</t>
+          <t>('made', 'movie')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01203042175616502</v>
+        <v>0.01210356281567093</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'movie')</t>
+          <t>('watching', 'film')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01198432818621802</v>
+        <v>0.01196705646812577</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('really', 'really')</t>
+          <t>('thing', 'movie')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01198432818621802</v>
+        <v>0.01196705646812577</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('thing', 'movie')</t>
+          <t>('anything', 'else')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01193823461627103</v>
+        <v>0.01164854165718706</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('bad', 'bad')</t>
+          <t>('two', 'hours')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01175386033648306</v>
+        <v>0.0115120353096419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('mst', 'k')</t>
+          <t>('like', 'watching')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01175386033648306</v>
+        <v>0.0115120353096419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('film', 'even')</t>
+          <t>('action', 'scenes')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01170776676653607</v>
+        <v>0.01137552896209674</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('time', 'money')</t>
+          <t>('tv', 'movie')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01161557962664208</v>
+        <v>0.01137552896209674</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('like', 'watching')</t>
+          <t>('writer', 'director')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01161557962664208</v>
+        <v>0.01133002684624835</v>
       </c>
     </row>
     <row r="53">
@@ -1116,153 +1116,166 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01143120534685411</v>
+        <v>0.01133002684624835</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('yet', 'another')</t>
+          <t>('first', 'half')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01138511177690712</v>
+        <v>0.01110251626700642</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('writer', 'director')</t>
+          <t>('gon', 'na')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01129292463701314</v>
+        <v>0.01101151203530964</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('tv', 'movie')</t>
+          <t>('feels', 'like')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01120073749711915</v>
+        <v>0.01096600991946125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('watching', 'film')</t>
+          <t>('mst', 'k')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01120073749711915</v>
+        <v>0.01092050780361287</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('first', 'half')</t>
+          <t>('time', 'money')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01110855035722517</v>
+        <v>0.01092050780361287</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('would', 'better')</t>
+          <t>('bad', 'bad')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01097026964738419</v>
+        <v>0.01092050780361287</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('would', 'make')</t>
+          <t>('film', 'could')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01097026964738419</v>
+        <v>0.01087500568776448</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('plot', 'holes')</t>
+          <t>('would', 'make')</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>237</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0109241760774372</v>
+        <v>0.01078400145606771</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('gon', 'na')</t>
+          <t>('would', 'better')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0109241760774372</v>
+        <v>0.01069299722437093</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('everyone', 'else')</t>
+          <t>('one', 'one')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01087808250749021</v>
+        <v>0.01064749510852255</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('whole', 'film')</t>
+          <t>('yet', 'another')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01083198893754321</v>
+        <v>0.01064749510852255</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>('really', 'really')</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>233</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01060199299267416</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,10 +1316,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1316</v>
+        <v>1332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06912853916058202</v>
+        <v>0.06872710386460967</v>
       </c>
     </row>
     <row r="3">
@@ -1316,10 +1329,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03246309817723381</v>
+        <v>0.0328672411124297</v>
       </c>
     </row>
     <row r="4">
@@ -1329,10 +1342,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03046698534432946</v>
+        <v>0.03116454259326144</v>
       </c>
     </row>
     <row r="5">
@@ -1342,10 +1355,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02899616536218942</v>
+        <v>0.02858469635209741</v>
       </c>
     </row>
     <row r="6">
@@ -1355,10 +1368,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0239008247097757</v>
+        <v>0.02249625922295031</v>
       </c>
     </row>
     <row r="7">
@@ -1368,10 +1381,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02290276829332353</v>
+        <v>0.02223827459883391</v>
       </c>
     </row>
     <row r="8">
@@ -1381,10 +1394,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02116930188580133</v>
+        <v>0.02038078530519581</v>
       </c>
     </row>
     <row r="9">
@@ -1394,10 +1407,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01975101118873772</v>
+        <v>0.01991641298178629</v>
       </c>
     </row>
     <row r="10">
@@ -1407,10 +1420,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01927824762304985</v>
+        <v>0.01929724988390692</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1433,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01880548405736198</v>
+        <v>0.01795572983850163</v>
       </c>
     </row>
     <row r="12">
@@ -1433,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01838524977675054</v>
+        <v>0.01754295443991538</v>
       </c>
     </row>
     <row r="13">
@@ -1449,150 +1462,150 @@
         <v>334</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01754478121552766</v>
+        <v>0.0172333728909757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('film', 'also')</t>
+          <t>('great', 'job')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01728213479014551</v>
+        <v>0.01718177596615242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('first', 'saw')</t>
+          <t>('world', 'war')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01696695907968692</v>
+        <v>0.0169753882668593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('great', 'job')</t>
+          <t>('seen', 'movie')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01675684193938121</v>
+        <v>0.0169753882668593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('world', 'war')</t>
+          <t>('film', 'also')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01659925408415192</v>
+        <v>0.01656261286827305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('takes', 'place')</t>
+          <t>('first', 'saw')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01591637337815832</v>
+        <v>0.01578865899592384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('well', 'written')</t>
+          <t>('one', 'day')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01575878552292903</v>
+        <v>0.01558227129663072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('love', 'movie')</t>
+          <t>('well', 'written')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01575878552292903</v>
+        <v>0.01542748052216088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('one', 'favorite')</t>
+          <t>('highly', 'recommended')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01560119766769974</v>
+        <v>0.0153758835973376</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('one', 'day')</t>
+          <t>('one', 'favorite')</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>297</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01560119766769974</v>
+        <v>0.01532428667251432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('highly', 'recommended')</t>
+          <t>('love', 'movie')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01549613909754688</v>
+        <v>0.01527268974769104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('young', 'man')</t>
+          <t>('years', 'old')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01544360981247045</v>
+        <v>0.01522109282286776</v>
       </c>
     </row>
     <row r="25">
@@ -1602,49 +1615,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01528602195724116</v>
+        <v>0.01516949589804448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('years', 'old')</t>
+          <t>('takes', 'place')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0151809633870883</v>
+        <v>0.01501470512357463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('go', 'see')</t>
+          <t>('young', 'man')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01507590481693544</v>
+        <v>0.01455033280016511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('tv', 'series')</t>
+          <t>('go', 'see')</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>276</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01449808268109471</v>
+        <v>0.01424075125122543</v>
       </c>
     </row>
     <row r="29">
@@ -1654,101 +1667,101 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01439302411094185</v>
+        <v>0.01418915432640215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('film', 'festival')</t>
+          <t>('worth', 'seeing')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01439302411094185</v>
+        <v>0.0140343635519323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('recommend', 'movie')</t>
+          <t>('tv', 'series')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01423543625571256</v>
+        <v>0.01367318507816934</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('worth', 'seeing')</t>
+          <t>('film', 'festival')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0141303776855597</v>
+        <v>0.01356999122852278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('film', 'great')</t>
+          <t>('film', 'like')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01397278983033041</v>
+        <v>0.01341520045405294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('much', 'like')</t>
+          <t>('recommend', 'movie')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0136050848347954</v>
+        <v>0.0132604096795831</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('film', 'like')</t>
+          <t>('much', 'like')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01355255554971897</v>
+        <v>0.01315721582993654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('true', 'story')</t>
+          <t>('film', 'great')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01313232126910753</v>
+        <v>0.01315721582993654</v>
       </c>
     </row>
     <row r="37">
@@ -1758,10 +1771,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01286967484372538</v>
+        <v>0.01310561890511325</v>
       </c>
     </row>
     <row r="38">
@@ -1771,23 +1784,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01276461627357252</v>
+        <v>0.01284763428099685</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('many', 'years')</t>
+          <t>('film', 'well')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01276461627357252</v>
+        <v>0.01279603735617357</v>
       </c>
     </row>
     <row r="40">
@@ -1800,319 +1813,332 @@
         <v>242</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01271208698849609</v>
+        <v>0.01248645580723389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('one', 'time')</t>
+          <t>('many', 'years')</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>241</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01265955770341966</v>
+        <v>0.01243485888241061</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('film', 'well')</t>
+          <t>('true', 'story')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01250196984819037</v>
+        <v>0.01238326195758733</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('top', 'notch')</t>
+          <t>('one', 'greatest')</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>237</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01244944056311394</v>
+        <v>0.01222847118311749</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('movie', 'well')</t>
+          <t>('well', 'known')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01229185270788465</v>
+        <v>0.01217687425829421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('would', 'recommend')</t>
+          <t>('one', 'time')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01229185270788465</v>
+        <v>0.01212527733347092</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('well', 'known')</t>
+          <t>('top', 'notch')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01197667699742607</v>
+        <v>0.01212527733347092</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('seen', 'film')</t>
+          <t>('would', 'recommend')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01192414771234964</v>
+        <v>0.01202208348382436</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('film', 'noir')</t>
+          <t>('movie', 'well')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01171403057204391</v>
+        <v>0.0119188896341778</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('kung', 'fu')</t>
+          <t>('film', 'good')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01166150128696748</v>
+        <v>0.01186729270935452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('film', 'good')</t>
+          <t>('kung', 'fu')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01160897200189105</v>
+        <v>0.01176409885970796</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('like', 'film')</t>
+          <t>('watched', 'movie')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01145138414666176</v>
+        <v>0.01155771116041484</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('point', 'view')</t>
+          <t>('big', 'screen')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01145138414666176</v>
+        <v>0.01150611423559156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('well', 'acted')</t>
+          <t>('seen', 'film')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01129379629143247</v>
+        <v>0.01145451731076828</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('science', 'fiction')</t>
+          <t>('quite', 'good')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01124126700635604</v>
+        <v>0.01129972653629844</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('big', 'screen')</t>
+          <t>('think', 'movie')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01124126700635604</v>
+        <v>0.01124812961147516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('best', 'film')</t>
+          <t>('fun', 'watch')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01124126700635604</v>
+        <v>0.01114493576182859</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('quite', 'good')</t>
+          <t>('along', 'way')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01118873772127961</v>
+        <v>0.01114493576182859</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('rest', 'cast')</t>
+          <t>('throughout', 'film')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01118873772127961</v>
+        <v>0.01109333883700532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('fun', 'watch')</t>
+          <t>('film', 'noir')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01118873772127961</v>
+        <v>0.01104174191218203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('watched', 'movie')</t>
+          <t>('made', 'film')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01108367915112675</v>
+        <v>0.01093854806253547</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('one', 'greatest')</t>
+          <t>('rest', 'cast')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01108367915112675</v>
+        <v>0.01083535421288891</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('films', 'ever')</t>
+          <t>('best', 'film')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01092609129589746</v>
+        <v>0.01083535421288891</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('young', 'woman')</t>
+          <t>('also', 'good')</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>208</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01092609129589746</v>
+        <v>0.01073216036324235</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('throughout', 'film')</t>
+          <t>('like', 'film')</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01087356201082103</v>
+        <v>0.01068056343841907</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>('people', 'like')</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>207</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01068056343841907</v>
       </c>
     </row>
   </sheetData>
